--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABD/20/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.22510000000001</v>
+        <v>-22.2029</v>
       </c>
       <c r="B4" t="n">
-        <v>4.8062</v>
+        <v>4.810500000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.82930000000002</v>
+        <v>-22.77410000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -522,12 +522,12 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.272799999999991</v>
+        <v>-9.319599999999994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.69779999999999</v>
+        <v>-19.97629999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -536,21 +536,21 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.340300000000003</v>
+        <v>-7.481899999999997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.318</v>
+        <v>-22.24080000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>5.053800000000001</v>
+        <v>5.0249</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.177699999999994</v>
+        <v>-8.322999999999992</v>
       </c>
     </row>
     <row r="9">
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.525199999999996</v>
+        <v>6.963099999999994</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.681900000000001</v>
+        <v>-7.388599999999997</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.420699999999999</v>
+        <v>5.031999999999994</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.668699999999999</v>
+        <v>-8.685600000000001</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.228599999999997</v>
+        <v>-8.128099999999995</v>
       </c>
     </row>
     <row r="15">
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.8479</v>
+        <v>-21.90930000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.031699999999999</v>
+        <v>-8.749000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>6.141299999999998</v>
+        <v>5.861299999999996</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.796099999999996</v>
+        <v>6.703599999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.35259999999999</v>
+        <v>9.134199999999998</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.82170000000002</v>
+        <v>-22.79390000000002</v>
       </c>
       <c r="B20" t="n">
-        <v>5.206999999999996</v>
+        <v>5.428099999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.18659999999998</v>
+        <v>-20.0661</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.835800000000007</v>
+        <v>4.581900000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9485</v>
+        <v>-21.85329999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.50329999999997</v>
+        <v>-21.41879999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.54190000000001</v>
+        <v>-21.60640000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.961099999999996</v>
+        <v>-6.940299999999999</v>
       </c>
     </row>
     <row r="31">
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.411099999999999</v>
+        <v>4.302999999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.26670000000002</v>
+        <v>-21.26260000000002</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.914099999999999</v>
+        <v>-7.867100000000001</v>
       </c>
     </row>
     <row r="38">
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.431300000000004</v>
+        <v>9.359700000000005</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-22.1643</v>
+        <v>-21.9738</v>
       </c>
       <c r="B40" t="n">
-        <v>6.048800000000004</v>
+        <v>5.912500000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.785499999999996</v>
+        <v>-7.979400000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.62379999999999</v>
+        <v>9.268099999999995</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.539999999999985</v>
+        <v>9.211499999999996</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.408600000000004</v>
+        <v>6.730400000000006</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.837800000000003</v>
+        <v>-7.012400000000002</v>
       </c>
     </row>
     <row r="45">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.84430000000001</v>
+        <v>-21.96190000000003</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.336399999999997</v>
+        <v>5.454500000000001</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.804200000000005</v>
+        <v>6.304500000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.56629999999998</v>
+        <v>-21.6356</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.10209999999999</v>
+        <v>-22.11100000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.930500000000002</v>
+        <v>5.187900000000004</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.91880000000002</v>
+        <v>-21.93840000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.25710000000002</v>
+        <v>-22.13880000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.1187</v>
+        <v>-22.12520000000003</v>
       </c>
       <c r="B62" t="n">
-        <v>5.230500000000001</v>
+        <v>4.986399999999998</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.801999999999997</v>
+        <v>5.019499999999997</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.608799999999999</v>
+        <v>5.198399999999998</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.43260000000001</v>
+        <v>-21.50240000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.667399999999999</v>
+        <v>-7.2485</v>
       </c>
     </row>
     <row r="71">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.25219999999997</v>
+        <v>-20.27949999999997</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.8424</v>
+        <v>-21.68859999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.521799999999997</v>
+        <v>6.531899999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.4761</v>
+        <v>-20.30959999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.750000000000004</v>
+        <v>4.532400000000004</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.109500000000002</v>
+        <v>4.950199999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1678,13 +1678,13 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.211099999999996</v>
+        <v>5.316599999999997</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-9.613899999999994</v>
+        <v>-9.886899999999995</v>
       </c>
     </row>
     <row r="90">
@@ -1712,12 +1712,12 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.813400000000002</v>
+        <v>-7.930299999999996</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.62270000000001</v>
+        <v>-21.54370000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.909299999999995</v>
+        <v>-6.661599999999996</v>
       </c>
     </row>
     <row r="94">
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>5.671699999999998</v>
+        <v>4.797199999999993</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.417999999999999</v>
+        <v>-7.442300000000002</v>
       </c>
     </row>
     <row r="99">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.12440000000002</v>
+        <v>-22.09810000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
